--- a/test.xlsx
+++ b/test.xlsx
@@ -28,9 +28,30 @@
     <t>Hint</t>
   </si>
   <si>
+    <t>hackneyed</t>
+  </si>
+  <si>
     <t>ephermal</t>
   </si>
   <si>
+    <t>extol</t>
+  </si>
+  <si>
+    <t>dogmatic</t>
+  </si>
+  <si>
+    <t>adultation</t>
+  </si>
+  <si>
+    <t>disparage</t>
+  </si>
+  <si>
+    <t>fastidious</t>
+  </si>
+  <si>
+    <t>impetuous</t>
+  </si>
+  <si>
     <t>flagrant</t>
   </si>
   <si>
@@ -40,33 +61,33 @@
     <t>didactic</t>
   </si>
   <si>
-    <t>extol</t>
-  </si>
-  <si>
-    <t>impetuous</t>
-  </si>
-  <si>
-    <t>dogmatic</t>
-  </si>
-  <si>
-    <t>adultation</t>
-  </si>
-  <si>
-    <t>hackneyed</t>
-  </si>
-  <si>
     <t>capricious</t>
   </si>
   <si>
-    <t>disparage</t>
-  </si>
-  <si>
-    <t>fastidious</t>
+    <t>work out through overuse; trite</t>
   </si>
   <si>
     <t>momentary; transient; fleeting</t>
   </si>
   <si>
+    <t>to praise highly</t>
+  </si>
+  <si>
+    <t>stubbornly attached to insufficiently proven beliefs</t>
+  </si>
+  <si>
+    <t>high praise</t>
+  </si>
+  <si>
+    <t>to speak of negatively; to belittle</t>
+  </si>
+  <si>
+    <t>carefully attentive to detail; difficult to please</t>
+  </si>
+  <si>
+    <t>suddenly and forcefully energetic or emotional; impulsive and passionate</t>
+  </si>
+  <si>
     <t>extremely or deliberately shocking or noticeable</t>
   </si>
   <si>
@@ -76,28 +97,7 @@
     <t>instructive</t>
   </si>
   <si>
-    <t>to praise highly</t>
-  </si>
-  <si>
-    <t>suddenly and forcefully energetic or emotional; impulsive and passionate</t>
-  </si>
-  <si>
-    <t>stubbornly attached to insufficiently proven beliefs</t>
-  </si>
-  <si>
-    <t>high praise</t>
-  </si>
-  <si>
-    <t>work out through overuse; trite</t>
-  </si>
-  <si>
     <t>impulsive and unpredictable</t>
-  </si>
-  <si>
-    <t>to speak of negatively; to belittle</t>
-  </si>
-  <si>
-    <t>carefully attentive to detail; difficult to please</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -458,227 +458,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2">
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
         <v>28</v>
       </c>
     </row>
